--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,63 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1799</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1811.949951171875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1789.599975585938</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1807.650024414062</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1807.650024414062</v>
+      </c>
+      <c r="G25" t="n">
+        <v>305435</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>27</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>22</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -1869,7 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1873,6 +1873,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1772.050048828125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>342023</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>29</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>22</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1563,9 +1628,12 @@
         <v>48</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,60 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1778.849975585938</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1756.199951171875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1759.550048828125</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1759.550048828125</v>
+      </c>
+      <c r="G25" t="n">
+        <v>19229</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>30</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>22</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1792,7 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,61 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1824.949951171875</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1804.199951171875</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1804.199951171875</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>22</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1810,8 +1810,12 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/3mo/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/3mo/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1628,12 +1693,15 @@
         <v>48</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,113 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1895.808032922069</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1978.574971744245</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1672.851079033814</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1816.333740234375</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>18173488</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>35</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1974.599975585938</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1713</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1767.25</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>7641905</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>48</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
